--- a/data_excel/832.xlsx
+++ b/data_excel/832.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前400題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -57,9 +57,6 @@
     <t>剩下</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>人</t>
   </si>
   <si>
@@ -140,6 +137,10 @@
   </si>
   <si>
     <t>單位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -186,7 +187,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -231,15 +232,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -545,7 +562,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -567,10 +584,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -587,10 +604,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -603,64 +620,64 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
+      <c r="F3" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
       <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -671,59 +688,59 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
@@ -734,13 +751,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
